--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\hello-world\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f16cd\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14DB90-0DAE-4579-BE84-9304BEB613BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C68C7D-7BBF-4E7C-809A-5538CFD9E15F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="1755" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,11 +369,11 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">A2 * 4</f>
+        <f t="shared" ref="B2:B9" si="0">A2 * 4</f>
         <v>8</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C5" si="1" xml:space="preserve"> B2 * 3.14159265</f>
+        <f t="shared" ref="C2:C9" si="1" xml:space="preserve"> B2 * 3.14159265</f>
         <v>25.132741200000002</v>
       </c>
     </row>
@@ -414,6 +414,58 @@
       <c r="C5">
         <f t="shared" si="1"/>
         <v>62.831853000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>75.398223600000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>125.663706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>289.02652380000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>150.79644720000002</v>
       </c>
     </row>
   </sheetData>
